--- a/public/maunhapnguoilaodong.xlsx
+++ b/public/maunhapnguoilaodong.xlsx
@@ -1,134 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AC871-95D2-4800-842F-7297C0268337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>hoten</t>
-  </si>
-  <si>
-    <t>gioitinh</t>
-  </si>
-  <si>
-    <t>ngaysinh</t>
-  </si>
-  <si>
-    <t>cmnd</t>
-  </si>
-  <si>
-    <t>dantoc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>nation</t>
   </si>
   <si>
-    <t>tinh</t>
-  </si>
-  <si>
-    <t>huyen</t>
-  </si>
-  <si>
-    <t>xa</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>sobaohiem</t>
-  </si>
-  <si>
-    <t>trinhdogiaoduc</t>
-  </si>
-  <si>
-    <t>trinhdocmkt</t>
-  </si>
-  <si>
-    <t>nghenghiep</t>
-  </si>
-  <si>
-    <t>linhvucdaotao</t>
-  </si>
-  <si>
-    <t>loaihdld</t>
-  </si>
-  <si>
-    <t>bdhopdong</t>
-  </si>
-  <si>
-    <t>kthopdong</t>
-  </si>
-  <si>
-    <t>luong</t>
-  </si>
-  <si>
-    <t>pcchucvu</t>
-  </si>
-  <si>
-    <t>pcthamnien</t>
-  </si>
-  <si>
-    <t>pcthamniennghe</t>
-  </si>
-  <si>
-    <t>pcluong</t>
-  </si>
-  <si>
-    <t>pcbosung</t>
-  </si>
-  <si>
-    <t>bddochai</t>
-  </si>
-  <si>
-    <t>ktdochai</t>
-  </si>
-  <si>
-    <t>vitri</t>
-  </si>
-  <si>
-    <t>chucvu</t>
-  </si>
-  <si>
-    <t>bdbhxh</t>
-  </si>
-  <si>
-    <t>ktbhxh</t>
-  </si>
-  <si>
-    <t>luongbhxh</t>
-  </si>
-  <si>
-    <t>ghichu</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
     <t>fromttdvvl</t>
   </si>
   <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>1984-06-20</t>
-  </si>
-  <si>
     <t>Kinh</t>
   </si>
   <si>
@@ -144,9 +50,6 @@
     <t>Chưa đi học</t>
   </si>
   <si>
-    <t>Không có trình độ chuyên môn kỹ thuật (CMKT)</t>
-  </si>
-  <si>
     <t>Nhà lãnh đạo</t>
   </si>
   <si>
@@ -160,28 +63,235 @@
   </si>
   <si>
     <t>Nguyễn Hữu Hải Nam</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>cmnd/cccd</t>
+  </si>
+  <si>
+    <t>Dân tộc</t>
+  </si>
+  <si>
+    <t>Tỉnh</t>
+  </si>
+  <si>
+    <t>Huyện</t>
+  </si>
+  <si>
+    <t>Xã</t>
+  </si>
+  <si>
+    <t>Số bảo hiểm</t>
+  </si>
+  <si>
+    <t>Trình độ giáo dục</t>
+  </si>
+  <si>
+    <t>Trình độ chuyên môn kỹ thuật</t>
+  </si>
+  <si>
+    <t>Lĩnh lực đào tạo</t>
+  </si>
+  <si>
+    <t>Nghề nghiệp</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>pc chức vụ</t>
+  </si>
+  <si>
+    <t>pc thâm niên</t>
+  </si>
+  <si>
+    <t>pc thâm niên nghề</t>
+  </si>
+  <si>
+    <t>pc lương</t>
+  </si>
+  <si>
+    <t>pc bổ sung</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>chức vụ</t>
+  </si>
+  <si>
+    <t>Bắt đầu BHXH</t>
+  </si>
+  <si>
+    <t>Kết thúc BHXH</t>
+  </si>
+  <si>
+    <t>Mức lương đóng BHXH</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp tiểu học</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp THCS</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp THPT</t>
+  </si>
+  <si>
+    <t>Cao đẳng</t>
+  </si>
+  <si>
+    <t>Chưa tốt nghiệp tiểu học</t>
+  </si>
+  <si>
+    <t>Không có trình độ chuyên  môn kỹ thuật (CMKT)</t>
+  </si>
+  <si>
+    <t>Dạy nghề sơ cấp</t>
+  </si>
+  <si>
+    <t>Trung cấp chuyên nghiệp</t>
+  </si>
+  <si>
+    <t>Dạy nghề trung cấp</t>
+  </si>
+  <si>
+    <t>Cao đẳng nghề</t>
+  </si>
+  <si>
+    <t>Đại học trở lên</t>
+  </si>
+  <si>
+    <t>Không xác định</t>
+  </si>
+  <si>
+    <t>Tự nhiên</t>
+  </si>
+  <si>
+    <t>Văn hóa nghệ thuật</t>
+  </si>
+  <si>
+    <t>Tổng hợp</t>
+  </si>
+  <si>
+    <t>Chuyên môn kỹ thuật bậc cao</t>
+  </si>
+  <si>
+    <t>Chuyên môn kỹ thuật bậc trung</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Dịch vụ cá nhân, bảo vệ bán hàng</t>
+  </si>
+  <si>
+    <t>Nghề trong Nông Lâm Ngư nghiệp</t>
+  </si>
+  <si>
+    <t>Thợ thủ công và các thợ khác có liên quan</t>
+  </si>
+  <si>
+    <t>Thợ lắp ráp , vận hành máy móc và thiết bị</t>
+  </si>
+  <si>
+    <t>Nghề giản đơn</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Loại HDLD</t>
+  </si>
+  <si>
+    <t>Đủ 12 đến 36 tháng</t>
+  </si>
+  <si>
+    <t>Đủ 3 đến 12 tháng</t>
+  </si>
+  <si>
+    <t>Dưới 3 tháng</t>
+  </si>
+  <si>
+    <t>Lĩnh vực đào tạo</t>
+  </si>
+  <si>
+    <t>Loại HĐLĐ</t>
+  </si>
+  <si>
+    <t>Kết thúc NN độc hại nặng nhọc</t>
+  </si>
+  <si>
+    <t>Kết thúc hợp đồng</t>
+  </si>
+  <si>
+    <t>Bất đầu hợp đồng</t>
+  </si>
+  <si>
+    <t>1999-09-08</t>
+  </si>
+  <si>
+    <t>Bắt đầu NN độc hại ,nặng nhọc</t>
+  </si>
+  <si>
+    <t>1999-07-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,14 +299,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -288,6 +421,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -323,6 +473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,169 +665,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" customWidth="1"/>
+    <col min="25" max="25" width="28.28515625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="28.85546875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="31" max="31" width="21.28515625" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AH1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>4408400000</v>
+        <v>4408320100</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="S2">
         <v>5000000</v>
       </c>
+      <c r="Y2" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="AA2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -669,8 +867,261 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>4418420011</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3">
+        <v>40000</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{042741DB-7275-4096-BD09-84ADFCE1936D}">
+      <formula1>"Nam,Nữ"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{433FE80C-4772-42E1-A650-97BB99D628A2}">
+          <x14:formula1>
+            <xm:f>Sheet1!D$2:D$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F70A6D2C-60D2-4FD9-AE8A-1C7216DFC03A}">
+          <x14:formula1>
+            <xm:f>Sheet1!A$2:A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1296CE71-F1CE-4AF9-9C94-8971CA53B03A}">
+          <x14:formula1>
+            <xm:f>Sheet1!F$2:F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A1B7A09-EC50-4ED8-AA60-E49CFE947A3C}">
+          <x14:formula1>
+            <xm:f>Sheet1!H$2:H$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F928AD2-3AEC-4536-8410-FBA80E3ED1A5}">
+          <x14:formula1>
+            <xm:f>Sheet1!J$2:J$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2057D5-0452-41EE-8F3E-7333B7900E03}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/maunhapnguoilaodong.xlsx
+++ b/public/maunhapnguoilaodong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tailieu\PM QLVL\quanlyvieclam\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AC871-95D2-4800-842F-7297C0268337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFD0363-DE85-4965-9197-3CBF31433BAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" forceFullCalc="1"/>
+  <calcPr calcId="179021" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>nation</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Nam</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
@@ -245,13 +242,10 @@
     <t>Bất đầu hợp đồng</t>
   </si>
   <si>
-    <t>1999-09-08</t>
-  </si>
-  <si>
     <t>Bắt đầu NN độc hại ,nặng nhọc</t>
   </si>
   <si>
-    <t>1999-07-06</t>
+    <t>08/09/1999</t>
   </si>
 </sst>
 </file>
@@ -291,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -314,19 +308,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -666,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,113 +700,113 @@
     <col min="24" max="24" width="11.85546875" customWidth="1"/>
     <col min="25" max="25" width="28.28515625" style="4" customWidth="1"/>
     <col min="26" max="26" width="28.85546875" style="4" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" customWidth="1"/>
-    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="13" style="6" customWidth="1"/>
     <col min="31" max="31" width="21.28515625" customWidth="1"/>
     <col min="34" max="34" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -810,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>74</v>
@@ -831,16 +836,16 @@
         <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
         <v>11</v>
@@ -864,62 +869,6 @@
         <v>1</v>
       </c>
       <c r="AH2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3">
-        <v>4418420011</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3">
-        <v>40000</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
         <v>1</v>
       </c>
     </row>
@@ -1002,7 +951,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1010,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1024,101 +973,101 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
